--- a/Examples/Two_pyroxene_Thermobarometry/Two_pyroxene_input.xlsx
+++ b/Examples/Two_pyroxene_Thermobarometry/Two_pyroxene_input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://oregonstateuniversity-my.sharepoint.com/personal/wieserp_oregonstate_edu/Documents/Postdoc/PyMME/MyBarometers/Thermobar_outer/Examples/Two_pyroxene_Thermobarometry/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\Examples\Two_pyroxene_Thermobarometry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{A998B071-12D4-4D0C-9831-ED4875052F81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E9C707-3BC5-47C8-9FEE-3077748DD2ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{273FEE2F-31E7-45B4-9E0B-954A0F6A9368}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="1" xr2:uid="{273FEE2F-31E7-45B4-9E0B-954A0F6A9368}"/>
   </bookViews>
   <sheets>
     <sheet name="Paired_Cpx_Opx" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>Sample_ID</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Sample19</t>
+  </si>
+  <si>
+    <t>Sample_ID_Opx</t>
+  </si>
+  <si>
+    <t>Sample_ID_Cpx</t>
   </si>
 </sst>
 </file>
@@ -2381,13 +2387,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E19988-CD01-4F46-A7E7-B07123B6E30C}">
   <dimension ref="A1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -3234,15 +3242,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{715FBE33-372D-4D70-A95F-EA4F031B91A2}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:11" ht="28.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>11</v>
